--- a/data/csv/FeatureList/00_RawFeatureList.xlsx
+++ b/data/csv/FeatureList/00_RawFeatureList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>mean</t>
   </si>
@@ -46,6 +46,9 @@
     <t>pt08_s1_co</t>
   </si>
   <si>
+    <t>nmhc_gt</t>
+  </si>
+  <si>
     <t>c6h6_gt</t>
   </si>
   <si>
@@ -76,12 +79,21 @@
     <t>ah</t>
   </si>
   <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
     <t>Stuendlich gemittelte CO-Konzentration</t>
   </si>
   <si>
     <t>Stuendlich gemittelte Sensorreaktion (nominell auf CO ausgerichtet) (Zinnoxid)</t>
   </si>
   <si>
+    <t>Stuendlich gemittelte Gesamtkonzentration an nicht-metanischem Kohlenwasserstoff</t>
+  </si>
+  <si>
     <t>Stuendlich gemittelte Benzolkonzentration</t>
   </si>
   <si>
@@ -110,6 +122,12 @@
   </si>
   <si>
     <t>Absolute Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>Monate der Erfassung</t>
+  </si>
+  <si>
+    <t>Stunden der erfassung</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +540,7 @@
         <v>11.9</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +566,7 @@
         <v>2040</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -556,25 +574,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>10.4582046958101</v>
+        <v>218.6076662908681</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>4.7</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>8.6</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>14.4</v>
+        <v>297</v>
       </c>
       <c r="G4">
-        <v>63.7</v>
+        <v>1189</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -582,25 +600,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>953.5794525878842</v>
+        <v>10.4582046958101</v>
       </c>
       <c r="C5">
-        <v>383</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>749</v>
+        <v>4.7</v>
       </c>
       <c r="E5">
-        <v>925</v>
+        <v>8.6</v>
       </c>
       <c r="F5">
-        <v>1130</v>
+        <v>14.4</v>
       </c>
       <c r="G5">
-        <v>2214</v>
+        <v>63.7</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -608,25 +626,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>232.3600715912789</v>
+        <v>953.5794525878842</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>749</v>
       </c>
       <c r="E6">
-        <v>164</v>
+        <v>925</v>
       </c>
       <c r="F6">
-        <v>303.75</v>
+        <v>1130</v>
       </c>
       <c r="G6">
-        <v>1479</v>
+        <v>2214</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -634,25 +652,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>848.7626151251784</v>
+        <v>232.3600715912789</v>
       </c>
       <c r="C7">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>672</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>818</v>
+        <v>164</v>
       </c>
       <c r="F7">
-        <v>984</v>
+        <v>303.75</v>
       </c>
       <c r="G7">
-        <v>2683</v>
+        <v>1479</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -660,25 +678,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>106.2518313527592</v>
+        <v>848.7626151251784</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>672</v>
       </c>
       <c r="E8">
-        <v>103</v>
+        <v>818</v>
       </c>
       <c r="F8">
-        <v>132</v>
+        <v>984</v>
       </c>
       <c r="G8">
-        <v>333</v>
+        <v>2683</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -686,25 +704,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1507.352834349462</v>
+        <v>106.2518313527592</v>
       </c>
       <c r="C9">
-        <v>657</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1305</v>
+        <v>73</v>
       </c>
       <c r="E9">
-        <v>1508</v>
+        <v>103</v>
       </c>
       <c r="F9">
-        <v>1707</v>
+        <v>132</v>
       </c>
       <c r="G9">
-        <v>2775</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -712,25 +730,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1024.200025943702</v>
+        <v>1507.352834349462</v>
       </c>
       <c r="C10">
-        <v>253</v>
+        <v>657</v>
       </c>
       <c r="D10">
-        <v>737</v>
+        <v>1305</v>
       </c>
       <c r="E10">
-        <v>962</v>
+        <v>1508</v>
       </c>
       <c r="F10">
-        <v>1272</v>
+        <v>1707</v>
       </c>
       <c r="G10">
-        <v>2523</v>
+        <v>2775</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -738,25 +756,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>19.47604099104944</v>
+        <v>1024.200025943702</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>253</v>
       </c>
       <c r="D11">
-        <v>13.1</v>
+        <v>737</v>
       </c>
       <c r="E11">
-        <v>19.3</v>
+        <v>962</v>
       </c>
       <c r="F11">
-        <v>25.4</v>
+        <v>1272</v>
       </c>
       <c r="G11">
-        <v>44.6</v>
+        <v>2523</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -764,25 +782,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>48.96924374108173</v>
+        <v>19.47604099104944</v>
       </c>
       <c r="C12">
-        <v>9.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>35.5</v>
+        <v>13.1</v>
       </c>
       <c r="E12">
-        <v>49.4</v>
+        <v>19.3</v>
       </c>
       <c r="F12">
-        <v>62.1</v>
+        <v>25.4</v>
       </c>
       <c r="G12">
-        <v>88.7</v>
+        <v>44.6</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -790,25 +808,103 @@
         <v>19</v>
       </c>
       <c r="B13">
+        <v>48.96924374108173</v>
+      </c>
+      <c r="C13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D13">
+        <v>35.5</v>
+      </c>
+      <c r="E13">
+        <v>49.4</v>
+      </c>
+      <c r="F13">
+        <v>62.1</v>
+      </c>
+      <c r="G13">
+        <v>88.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>1.082098624983781</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.1988</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.8167</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.0468</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>1.3713</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2.231</v>
       </c>
-      <c r="H13" t="s">
-        <v>31</v>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>6.928525100531846</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>11.48851991179141</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
